--- a/InputData/endo-learn/GBEtPR/Grid Battery Energy to Power Ratio.xlsx
+++ b/InputData/endo-learn/GBEtPR/Grid Battery Energy to Power Ratio.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\endo-learn\GBEtPR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/wa/endo-learn/gbetpr/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91838E86-BA52-F54F-BDB5-D8C3291BFA1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22635" windowHeight="10965"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22640" windowHeight="10960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -17,10 +18,19 @@
     <sheet name="Calculations" sheetId="3" r:id="rId3"/>
     <sheet name="GBEtPR" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -143,7 +153,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -409,7 +419,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -498,12 +508,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Table Header 2" xfId="2"/>
+    <cellStyle name="Table Header 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -943,25 +954,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.3984375" customWidth="1"/>
-    <col min="2" max="2" width="46.86328125" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="46.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" s="43">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -969,37 +983,37 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="38">
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="39" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1011,35 +1025,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A9:AD41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.265625" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="16" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="12.73046875" customWidth="1"/>
-    <col min="28" max="30" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="27" width="12.6640625" customWidth="1"/>
+    <col min="28" max="30" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:30" ht="23.25" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:30" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1131,7 +1145,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
@@ -1223,7 +1237,7 @@
         <v>223.71053661763759</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1315,7 +1329,7 @@
         <v>180.40979354233912</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
@@ -1436,7 +1450,7 @@
         <v>404.12033015997667</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>6</v>
       </c>
@@ -1528,7 +1542,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
@@ -1620,7 +1634,7 @@
         <v>559.27634154409395</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>4</v>
       </c>
@@ -1712,7 +1726,7 @@
         <v>414.94252514737997</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1833,7 +1847,7 @@
         <v>974.21886669147398</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -1864,7 +1878,7 @@
       <c r="AC19" s="15"/>
       <c r="AD19" s="15"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -1895,17 +1909,17 @@
       <c r="AC20" s="15"/>
       <c r="AD20" s="15"/>
     </row>
-    <row r="21" spans="1:30" ht="23.25" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:30" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -1977,7 +1991,7 @@
       <c r="AC23" s="17"/>
       <c r="AD23" s="17"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -2049,7 +2063,7 @@
       <c r="AC24" s="19"/>
       <c r="AD24" s="19"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -2121,7 +2135,7 @@
       <c r="AC25" s="19"/>
       <c r="AD25" s="19"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -2200,7 +2214,7 @@
       <c r="AC26" s="19"/>
       <c r="AD26" s="19"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="U27" s="19"/>
       <c r="V27" s="19"/>
       <c r="W27" s="19"/>
@@ -2212,7 +2226,7 @@
       <c r="AC27" s="19"/>
       <c r="AD27" s="19"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>12</v>
       </c>
@@ -2227,7 +2241,7 @@
       <c r="AC28" s="19"/>
       <c r="AD28" s="19"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
@@ -2299,7 +2313,7 @@
       <c r="AC29" s="17"/>
       <c r="AD29" s="17"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
         <v>5</v>
       </c>
@@ -2385,28 +2399,28 @@
       <c r="AC30" s="19"/>
       <c r="AD30" s="19"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
     </row>
-    <row r="34" spans="1:6" ht="23.25" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C37" s="41" t="s">
         <v>16</v>
       </c>
@@ -2416,7 +2430,7 @@
       </c>
       <c r="F37" s="42"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="22" t="s">
         <v>6</v>
       </c>
@@ -2436,7 +2450,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
         <v>20</v>
       </c>
@@ -2458,7 +2472,7 @@
         <v>185.24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
         <v>9</v>
       </c>
@@ -2480,7 +2494,7 @@
         <v>235.76</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
         <v>5</v>
       </c>
@@ -2556,9 +2570,9 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A22" r:id="rId1"/>
-    <hyperlink ref="A28" r:id="rId2"/>
-    <hyperlink ref="A35" r:id="rId3"/>
+    <hyperlink ref="A22" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A28" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A35" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId4"/>
@@ -2566,17 +2580,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.1328125" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>2016</v>
       </c>
@@ -2623,7 +2637,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2688,7 +2702,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -2753,27 +2767,27 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="40" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="37">
         <f>AVERAGE(B2:P3)</f>
         <v>2.3999999999999986</v>
@@ -2785,7 +2799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -2795,18 +2809,18 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" s="40" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>33</v>
       </c>

--- a/InputData/endo-learn/GBEtPR/Grid Battery Energy to Power Ratio.xlsx
+++ b/InputData/endo-learn/GBEtPR/Grid Battery Energy to Power Ratio.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/wa/endo-learn/gbetpr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/endo-learn/gbetpr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91838E86-BA52-F54F-BDB5-D8C3291BFA1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DA6CE9-C583-9545-AA6F-8911D513F39A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22640" windowHeight="10960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/InputData/endo-learn/GBEtPR/Grid Battery Energy to Power Ratio.xlsx
+++ b/InputData/endo-learn/GBEtPR/Grid Battery Energy to Power Ratio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\All_states_RMI\WA\endo-learn\GBEtPR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/WA/endo-learn/GBEtPR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04291AF0-AC7D-4A84-B259-9EA65E70173B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC295685-B5A2-084D-B356-5F4018830928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -443,13 +443,13 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" customWidth="1"/>
+    <col min="2" max="2" width="46.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -457,10 +457,10 @@
         <v>13</v>
       </c>
       <c r="C1" s="8">
-        <v>44538</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,59 +468,59 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="6"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
     </row>
   </sheetData>
@@ -540,18 +540,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
